--- a/ncsr_clean_dana.xlsx
+++ b/ncsr_clean_dana.xlsx
@@ -440,11 +440,29 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -454,14 +472,29 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -471,10 +504,28 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
@@ -485,11 +536,29 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -505,6 +574,12 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -522,8 +597,23 @@
       <c r="A7" s="1">
         <v>34</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -542,7 +632,19 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
@@ -562,7 +664,19 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
@@ -582,7 +696,22 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
@@ -599,14 +728,29 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="H11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -616,7 +760,28 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
@@ -624,11 +789,32 @@
       <c r="A13" s="1">
         <v>65</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="H13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -638,7 +824,19 @@
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
@@ -655,14 +853,32 @@
       <c r="A15" s="1">
         <v>70</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -672,7 +888,19 @@
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
@@ -692,11 +920,29 @@
       <c r="B17">
         <v>0</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
       <c r="H17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -712,6 +958,24 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
@@ -720,7 +984,22 @@
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
@@ -734,11 +1013,32 @@
       <c r="A20" s="1">
         <v>96</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
       <c r="H20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -748,7 +1048,19 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
@@ -765,14 +1077,32 @@
       <c r="A22" s="1">
         <v>109</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -782,8 +1112,17 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
         <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -805,7 +1144,19 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
@@ -825,14 +1176,29 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
       <c r="H25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -842,10 +1208,28 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26">
         <v>0</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>0</v>
       </c>
     </row>
@@ -853,11 +1237,26 @@
       <c r="A27" s="1">
         <v>141</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -876,10 +1275,25 @@
       <c r="C28">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>0</v>
       </c>
     </row>
@@ -887,13 +1301,31 @@
       <c r="A29" s="1">
         <v>147</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29">
         <v>0</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>0</v>
       </c>
     </row>
@@ -904,10 +1336,28 @@
       <c r="B30">
         <v>0</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>0</v>
       </c>
     </row>
@@ -918,7 +1368,19 @@
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
@@ -938,11 +1400,29 @@
       <c r="B32">
         <v>0</v>
       </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="G32">
         <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -952,7 +1432,19 @@
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
@@ -969,8 +1461,26 @@
       <c r="A34" s="1">
         <v>177</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="D34">
         <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -986,13 +1496,28 @@
       <c r="B35">
         <v>1</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>0</v>
       </c>
     </row>
@@ -1000,11 +1525,32 @@
       <c r="A36" s="1">
         <v>190</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="D36">
         <v>1</v>
       </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
       <c r="G36">
         <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1014,10 +1560,28 @@
       <c r="B37">
         <v>0</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>0</v>
       </c>
     </row>
@@ -1028,8 +1592,20 @@
       <c r="B38">
         <v>0</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
       <c r="E38">
         <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1045,8 +1621,32 @@
       <c r="A39" s="1">
         <v>221</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="D39">
         <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1056,14 +1656,29 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
       <c r="E40">
         <v>0</v>
       </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1073,8 +1688,29 @@
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="D41">
         <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1090,6 +1726,15 @@
       <c r="D42">
         <v>1</v>
       </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
       <c r="H42">
         <v>1</v>
       </c>
@@ -1107,8 +1752,20 @@
       <c r="B43">
         <v>1</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="D43">
         <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1127,11 +1784,29 @@
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44">
         <v>0</v>
       </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
       <c r="H44">
         <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1141,10 +1816,19 @@
       <c r="B45">
         <v>1</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
@@ -1164,7 +1848,19 @@
       <c r="B46">
         <v>0</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
@@ -1184,10 +1880,28 @@
       <c r="B47">
         <v>0</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>0</v>
       </c>
     </row>
@@ -1198,10 +1912,28 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48">
         <v>0</v>
       </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>0</v>
       </c>
     </row>
@@ -1212,22 +1944,49 @@
       <c r="B49">
         <v>0</v>
       </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="E49">
         <v>0</v>
       </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>283</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50">
         <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1249,10 +2008,28 @@
       <c r="B51">
         <v>1</v>
       </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
       <c r="D51">
         <v>0</v>
       </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +2040,19 @@
       <c r="B52">
         <v>0</v>
       </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
@@ -1280,19 +2069,52 @@
       <c r="A53" s="1">
         <v>292</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
       <c r="D53">
         <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>300</v>
       </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -1314,6 +2136,12 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
       <c r="E55">
         <v>1</v>
       </c>
@@ -1321,6 +2149,9 @@
         <v>1</v>
       </c>
       <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
@@ -1337,11 +2168,29 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
       <c r="D56">
         <v>1</v>
       </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
       <c r="H56">
         <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -1351,7 +2200,19 @@
       <c r="B57">
         <v>0</v>
       </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
@@ -1371,8 +2232,20 @@
       <c r="B58">
         <v>1</v>
       </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
       <c r="D58">
         <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1391,8 +2264,23 @@
       <c r="B59">
         <v>1</v>
       </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="E59">
         <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -1408,11 +2296,29 @@
       <c r="B60">
         <v>0</v>
       </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
       <c r="E60">
         <v>0</v>
       </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
       <c r="G60">
         <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -1422,14 +2328,29 @@
       <c r="B61">
         <v>0</v>
       </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
       <c r="E61">
         <v>0</v>
       </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -1439,11 +2360,29 @@
       <c r="B62">
         <v>0</v>
       </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
       <c r="D62">
         <v>1</v>
       </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
       <c r="H62">
         <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -1453,11 +2392,29 @@
       <c r="B63">
         <v>1</v>
       </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
       <c r="D63">
         <v>1</v>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
       <c r="H63">
         <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -1467,10 +2424,19 @@
       <c r="B64">
         <v>0</v>
       </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
@@ -1487,10 +2453,25 @@
       <c r="A65" s="1">
         <v>361</v>
       </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
@@ -1504,10 +2485,31 @@
       <c r="A66" s="1">
         <v>362</v>
       </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
       <c r="E66">
         <v>0</v>
       </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>0</v>
       </c>
     </row>
@@ -1518,11 +2520,29 @@
       <c r="B67">
         <v>1</v>
       </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
       <c r="D67">
         <v>0</v>
       </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
       <c r="H67">
         <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -1532,13 +2552,28 @@
       <c r="B68">
         <v>1</v>
       </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
       <c r="E68">
         <v>0</v>
       </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>0</v>
       </c>
     </row>
@@ -1549,8 +2584,23 @@
       <c r="B69">
         <v>0</v>
       </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
       <c r="E69">
         <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -1566,8 +2616,29 @@
       <c r="B70">
         <v>0</v>
       </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
       <c r="D70">
         <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -1577,11 +2648,29 @@
       <c r="B71">
         <v>0</v>
       </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
       <c r="D71">
         <v>1</v>
       </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
       <c r="H71">
         <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -1591,6 +2680,12 @@
       <c r="B72">
         <v>0</v>
       </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
       <c r="E72">
         <v>1</v>
       </c>
@@ -1598,6 +2693,15 @@
         <v>1</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>0</v>
       </c>
     </row>
@@ -1608,11 +2712,29 @@
       <c r="B73">
         <v>1</v>
       </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="E73">
         <v>0</v>
       </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
       <c r="H73">
         <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -1628,7 +2750,22 @@
       <c r="D74">
         <v>1</v>
       </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>0</v>
       </c>
     </row>
@@ -1639,7 +2776,16 @@
       <c r="B75">
         <v>0</v>
       </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
       <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
@@ -1662,10 +2808,28 @@
       <c r="B76">
         <v>1</v>
       </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>0</v>
       </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <v>0</v>
       </c>
     </row>
@@ -1676,7 +2840,19 @@
       <c r="B77">
         <v>0</v>
       </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
       <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
@@ -1696,11 +2872,29 @@
       <c r="B78">
         <v>1</v>
       </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
       <c r="D78">
         <v>1</v>
       </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
       <c r="H78">
         <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -1710,10 +2904,28 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
       <c r="E79">
         <v>0</v>
       </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
         <v>0</v>
       </c>
     </row>
@@ -1724,6 +2936,12 @@
       <c r="B80">
         <v>1</v>
       </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80">
         <v>1</v>
       </c>
@@ -1735,13 +2953,34 @@
       </c>
       <c r="H80">
         <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>445</v>
       </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
       <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
@@ -1761,13 +3000,28 @@
       <c r="B82">
         <v>0</v>
       </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
       <c r="E82">
         <v>0</v>
       </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>0</v>
       </c>
     </row>
@@ -1778,8 +3032,20 @@
       <c r="B83">
         <v>0</v>
       </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
       <c r="E83">
         <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -1798,10 +3064,28 @@
       <c r="B84">
         <v>1</v>
       </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
       <c r="E84">
         <v>0</v>
       </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <v>0</v>
       </c>
     </row>
@@ -1812,11 +3096,29 @@
       <c r="B85">
         <v>0</v>
       </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
       <c r="D85">
         <v>1</v>
       </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
       <c r="H85">
         <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -1826,10 +3128,22 @@
       <c r="B86">
         <v>1</v>
       </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
       <c r="E86">
         <v>0</v>
       </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
       <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
@@ -1846,7 +3160,19 @@
       <c r="B87">
         <v>0</v>
       </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
       <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
@@ -1863,13 +3189,31 @@
       <c r="A88" s="1">
         <v>493</v>
       </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
       <c r="D88">
         <v>1</v>
       </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>0</v>
       </c>
     </row>
@@ -1880,10 +3224,28 @@
       <c r="B89">
         <v>1</v>
       </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
       <c r="E89">
         <v>0</v>
       </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
         <v>0</v>
       </c>
     </row>
@@ -1894,6 +3256,12 @@
       <c r="B90">
         <v>1</v>
       </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
       <c r="E90">
         <v>1</v>
       </c>
@@ -1920,7 +3288,22 @@
       <c r="B91">
         <v>1</v>
       </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
       <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
@@ -1937,13 +3320,28 @@
       <c r="B92">
         <v>0</v>
       </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
       <c r="E92">
         <v>0</v>
       </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
         <v>0</v>
       </c>
     </row>
@@ -1951,14 +3349,32 @@
       <c r="A93" s="1">
         <v>531</v>
       </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
       <c r="E93">
         <v>0</v>
       </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
         <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -1968,11 +3384,29 @@
       <c r="B94">
         <v>1</v>
       </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
       <c r="D94">
         <v>1</v>
       </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
       <c r="H94">
         <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -1985,10 +3419,25 @@
       <c r="C95">
         <v>0</v>
       </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
       <c r="E95">
         <v>0</v>
       </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
         <v>0</v>
       </c>
     </row>
@@ -1999,10 +3448,28 @@
       <c r="B96">
         <v>0</v>
       </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
       <c r="D96">
         <v>1</v>
       </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>0</v>
       </c>
     </row>
@@ -2013,10 +3480,28 @@
       <c r="B97">
         <v>0</v>
       </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
       <c r="E97">
         <v>0</v>
       </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>0</v>
       </c>
     </row>
@@ -2027,11 +3512,29 @@
       <c r="B98">
         <v>1</v>
       </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
         <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2041,7 +3544,19 @@
       <c r="B99">
         <v>0</v>
       </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
       <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
@@ -2061,14 +3576,29 @@
       <c r="B100">
         <v>0</v>
       </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
       <c r="H100">
         <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -2078,13 +3608,28 @@
       <c r="B101">
         <v>1</v>
       </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
       <c r="E101">
         <v>0</v>
       </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <v>0</v>
       </c>
     </row>
@@ -2095,7 +3640,19 @@
       <c r="B102">
         <v>1</v>
       </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
       <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
@@ -2112,14 +3669,32 @@
       <c r="A103" s="1">
         <v>600</v>
       </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
       <c r="D103">
         <v>1</v>
       </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
         <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -2132,7 +3707,25 @@
       <c r="C104">
         <v>0</v>
       </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
@@ -2140,10 +3733,31 @@
       <c r="A105" s="1">
         <v>619</v>
       </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
       <c r="E105">
         <v>0</v>
       </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
       <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
         <v>0</v>
       </c>
     </row>
@@ -2154,14 +3768,29 @@
       <c r="B106">
         <v>0</v>
       </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
       <c r="E106">
         <v>0</v>
       </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
         <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -2171,7 +3800,19 @@
       <c r="B107">
         <v>1</v>
       </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
       <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
@@ -2191,11 +3832,29 @@
       <c r="B108">
         <v>0</v>
       </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
       <c r="E108">
         <v>0</v>
       </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
       <c r="H108">
         <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -2205,11 +3864,29 @@
       <c r="B109">
         <v>1</v>
       </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
         <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -2219,7 +3896,19 @@
       <c r="B110">
         <v>0</v>
       </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
       <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
         <v>1</v>
       </c>
       <c r="H110">
@@ -2239,10 +3928,28 @@
       <c r="B111">
         <v>0</v>
       </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
       <c r="D111">
         <v>1</v>
       </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
       <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
         <v>0</v>
       </c>
     </row>
@@ -2256,8 +3963,17 @@
       <c r="C112">
         <v>0</v>
       </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
       <c r="E112">
         <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -2279,10 +3995,19 @@
       <c r="C113">
         <v>1</v>
       </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
@@ -2299,7 +4024,19 @@
       <c r="B114">
         <v>0</v>
       </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
       <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
@@ -2319,8 +4056,29 @@
       <c r="B115">
         <v>1</v>
       </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
       <c r="D115">
         <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -2330,8 +4088,17 @@
       <c r="B116">
         <v>0</v>
       </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
       <c r="E116">
         <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -2350,11 +4117,32 @@
       <c r="A117" s="1">
         <v>710</v>
       </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
       <c r="D117">
         <v>1</v>
       </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
       <c r="H117">
         <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -2364,11 +4152,29 @@
       <c r="B118">
         <v>1</v>
       </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118">
         <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -2381,10 +4187,16 @@
       <c r="C119">
         <v>0</v>
       </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
@@ -2401,14 +4213,32 @@
       <c r="A120" s="1">
         <v>762</v>
       </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
       <c r="D120">
         <v>1</v>
       </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
         <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -2418,8 +4248,20 @@
       <c r="B121">
         <v>0</v>
       </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
       <c r="D121">
         <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -2438,10 +4280,28 @@
       <c r="B122">
         <v>1</v>
       </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
       <c r="E122">
         <v>0</v>
       </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
         <v>0</v>
       </c>
     </row>
@@ -2452,8 +4312,17 @@
       <c r="B123">
         <v>0</v>
       </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
       <c r="E123">
         <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -2475,7 +4344,16 @@
       <c r="B124">
         <v>0</v>
       </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
       <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>1</v>
       </c>
       <c r="G124">
@@ -2498,14 +4376,29 @@
       <c r="B125">
         <v>0</v>
       </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
       <c r="H125">
         <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -2521,8 +4414,23 @@
       <c r="D126">
         <v>1</v>
       </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
       <c r="H126">
         <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -2532,7 +4440,19 @@
       <c r="B127">
         <v>1</v>
       </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
       <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
         <v>1</v>
       </c>
       <c r="H127">
@@ -2552,7 +4472,19 @@
       <c r="B128">
         <v>1</v>
       </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
       <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
         <v>1</v>
       </c>
       <c r="H128">
@@ -2572,7 +4504,22 @@
       <c r="B129">
         <v>1</v>
       </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
       <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
@@ -2589,6 +4536,12 @@
       <c r="B130">
         <v>0</v>
       </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
       <c r="E130">
         <v>1</v>
       </c>
@@ -2597,6 +4550,15 @@
       </c>
       <c r="G130">
         <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -2612,7 +4574,22 @@
       <c r="D131">
         <v>1</v>
       </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
         <v>0</v>
       </c>
     </row>
@@ -2623,13 +4600,28 @@
       <c r="B132">
         <v>1</v>
       </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
       <c r="D132">
         <v>1</v>
       </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
       <c r="G132">
         <v>1</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
         <v>0</v>
       </c>
     </row>
@@ -2640,11 +4632,29 @@
       <c r="B133">
         <v>0</v>
       </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
       <c r="D133">
         <v>0</v>
       </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
       <c r="H133">
         <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -2654,11 +4664,29 @@
       <c r="B134">
         <v>1</v>
       </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
       <c r="D134">
         <v>1</v>
       </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
       <c r="H134">
         <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -2668,14 +4696,29 @@
       <c r="B135">
         <v>0</v>
       </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
       <c r="D135">
         <v>1</v>
       </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
         <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -2685,11 +4728,29 @@
       <c r="B136">
         <v>0</v>
       </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
       <c r="D136">
         <v>1</v>
       </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
       <c r="H136">
         <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -2699,8 +4760,17 @@
       <c r="B137">
         <v>0</v>
       </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
       <c r="E137">
         <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -2722,14 +4792,29 @@
       <c r="B138">
         <v>0</v>
       </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
       <c r="D138">
         <v>0</v>
       </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
         <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -2739,14 +4824,29 @@
       <c r="B139">
         <v>1</v>
       </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
       <c r="E139">
         <v>0</v>
       </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
         <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -2756,7 +4856,19 @@
       <c r="B140">
         <v>0</v>
       </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
       <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
@@ -2773,6 +4885,24 @@
       <c r="A141" s="1">
         <v>955</v>
       </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
       <c r="H141">
         <v>0</v>
       </c>
@@ -2790,7 +4920,19 @@
       <c r="B142">
         <v>0</v>
       </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
       <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
         <v>1</v>
       </c>
       <c r="H142">
@@ -2810,7 +4952,22 @@
       <c r="B143">
         <v>0</v>
       </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
       <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
@@ -2824,6 +4981,24 @@
       <c r="A144" s="1">
         <v>980</v>
       </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
       <c r="H144">
         <v>1</v>
       </c>
@@ -2844,11 +5019,17 @@
       <c r="C145">
         <v>0</v>
       </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145">
         <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -2867,10 +5048,22 @@
       <c r="B146">
         <v>1</v>
       </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
       <c r="D146">
         <v>1</v>
       </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
       <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
@@ -2884,18 +5077,51 @@
       <c r="A147" s="1">
         <v>995</v>
       </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
       <c r="E147">
         <v>0</v>
       </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
       <c r="H147">
         <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>996</v>
       </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
       <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
         <v>1</v>
       </c>
       <c r="G148">
@@ -2918,28 +5144,61 @@
       <c r="B149">
         <v>0</v>
       </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
       <c r="D149">
         <v>1</v>
       </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
         <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>1001</v>
       </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
       <c r="E150">
         <v>0</v>
       </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
         <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -2949,7 +5208,19 @@
       <c r="B151">
         <v>0</v>
       </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
       <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
         <v>1</v>
       </c>
       <c r="H151">
@@ -2969,11 +5240,29 @@
       <c r="B152">
         <v>0</v>
       </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
       <c r="E152">
         <v>0</v>
       </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
       <c r="H152">
         <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -2983,8 +5272,23 @@
       <c r="B153">
         <v>1</v>
       </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
       <c r="D153">
         <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -3000,11 +5304,29 @@
       <c r="B154">
         <v>1</v>
       </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
       <c r="D154">
         <v>0</v>
       </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
       <c r="H154">
         <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -3014,7 +5336,22 @@
       <c r="B155">
         <v>1</v>
       </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
       <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
@@ -3031,21 +5368,60 @@
       <c r="B156">
         <v>1</v>
       </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
       <c r="D156">
         <v>0</v>
       </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
       <c r="H156">
         <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>1036</v>
       </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
       <c r="D157">
         <v>1</v>
       </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
         <v>0</v>
       </c>
     </row>
@@ -3053,11 +5429,32 @@
       <c r="A158" s="1">
         <v>1039</v>
       </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
       <c r="D158">
         <v>1</v>
       </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
       <c r="H158">
         <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -3067,7 +5464,19 @@
       <c r="B159">
         <v>1</v>
       </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
       <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
@@ -3087,7 +5496,19 @@
       <c r="B160">
         <v>0</v>
       </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
       <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
@@ -3104,10 +5525,25 @@
       <c r="A161" s="1">
         <v>1055</v>
       </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
@@ -3124,11 +5560,29 @@
       <c r="B162">
         <v>0</v>
       </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
       <c r="E162">
         <v>0</v>
       </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
       <c r="H162">
         <v>1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -3138,11 +5592,29 @@
       <c r="B163">
         <v>0</v>
       </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
       <c r="D163">
         <v>1</v>
       </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
       <c r="H163">
         <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -3158,7 +5630,16 @@
       <c r="D164">
         <v>0</v>
       </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
       <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
@@ -3172,11 +5653,32 @@
       <c r="A165" s="1">
         <v>1074</v>
       </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
       <c r="D165">
         <v>1</v>
       </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
       <c r="G165">
         <v>1</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -3186,10 +5688,28 @@
       <c r="B166">
         <v>0</v>
       </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
         <v>0</v>
       </c>
     </row>
@@ -3200,8 +5720,17 @@
       <c r="B167">
         <v>0</v>
       </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
       <c r="E167">
         <v>0</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -3223,8 +5752,29 @@
       <c r="B168">
         <v>0</v>
       </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
       <c r="D168">
         <v>1</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -3234,11 +5784,29 @@
       <c r="B169">
         <v>1</v>
       </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
       <c r="D169">
         <v>0</v>
       </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
       <c r="G169">
         <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -3248,22 +5816,61 @@
       <c r="B170">
         <v>1</v>
       </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
       <c r="D170">
         <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>1097</v>
       </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
       <c r="D171">
         <v>0</v>
       </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
         <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -3273,13 +5880,28 @@
       <c r="B172">
         <v>0</v>
       </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
       <c r="E172">
         <v>0</v>
       </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
       <c r="G172">
         <v>1</v>
       </c>
       <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
         <v>0</v>
       </c>
     </row>
@@ -3290,8 +5912,20 @@
       <c r="B173">
         <v>0</v>
       </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
       <c r="E173">
         <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -3310,7 +5944,16 @@
       <c r="B174">
         <v>0</v>
       </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
       <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
         <v>1</v>
       </c>
       <c r="G174">
@@ -3333,8 +5976,17 @@
       <c r="B175">
         <v>0</v>
       </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
       <c r="D175">
         <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -3356,10 +6008,28 @@
       <c r="B176">
         <v>0</v>
       </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
       <c r="D176">
         <v>0</v>
       </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
         <v>0</v>
       </c>
     </row>
@@ -3370,8 +6040,29 @@
       <c r="B177">
         <v>0</v>
       </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
       <c r="D177">
         <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -3384,10 +6075,25 @@
       <c r="C178">
         <v>1</v>
       </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
       <c r="E178">
         <v>0</v>
       </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
       <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +6104,19 @@
       <c r="B179">
         <v>1</v>
       </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
       <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
@@ -3421,10 +6139,25 @@
       <c r="C180">
         <v>0</v>
       </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
       <c r="E180">
         <v>0</v>
       </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
       <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
         <v>0</v>
       </c>
     </row>
@@ -3432,8 +6165,32 @@
       <c r="A181" s="1">
         <v>1151</v>
       </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
       <c r="D181">
         <v>1</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -3443,8 +6200,17 @@
       <c r="B182">
         <v>0</v>
       </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
       <c r="E182">
         <v>0</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -3466,10 +6232,28 @@
       <c r="B183">
         <v>0</v>
       </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
       <c r="D183">
         <v>1</v>
       </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
         <v>0</v>
       </c>
     </row>
@@ -3477,14 +6261,32 @@
       <c r="A184" s="1">
         <v>1177</v>
       </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
       <c r="E184">
         <v>0</v>
       </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
       <c r="G184">
         <v>1</v>
       </c>
       <c r="H184">
         <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -3494,10 +6296,28 @@
       <c r="B185">
         <v>0</v>
       </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
       <c r="D185">
         <v>0</v>
       </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
       <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
         <v>0</v>
       </c>
     </row>
@@ -3511,6 +6331,9 @@
       <c r="C186">
         <v>0</v>
       </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
       <c r="E186">
         <v>1</v>
       </c>
@@ -3537,7 +6360,19 @@
       <c r="B187">
         <v>0</v>
       </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
       <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
         <v>1</v>
       </c>
       <c r="H187">
@@ -3557,18 +6392,51 @@
       <c r="B188">
         <v>1</v>
       </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
       <c r="D188">
         <v>1</v>
       </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
       <c r="H188">
         <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="1">
         <v>1205</v>
       </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
       <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
@@ -3588,8 +6456,20 @@
       <c r="B190">
         <v>1</v>
       </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
       <c r="E190">
         <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -3605,8 +6485,26 @@
       <c r="A191" s="1">
         <v>1209</v>
       </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
       <c r="D191">
         <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -3622,6 +6520,12 @@
       <c r="B192">
         <v>1</v>
       </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
       <c r="E192">
         <v>1</v>
       </c>
@@ -3648,7 +6552,19 @@
       <c r="B193">
         <v>0</v>
       </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
       <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
@@ -3668,11 +6584,23 @@
       <c r="B194">
         <v>0</v>
       </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
       <c r="D194">
         <v>1</v>
       </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
       <c r="G194">
         <v>0</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -3685,6 +6613,15 @@
       <c r="A195" s="1">
         <v>1230</v>
       </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
       <c r="E195">
         <v>1</v>
       </c>
@@ -3711,11 +6648,29 @@
       <c r="B196">
         <v>0</v>
       </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
       <c r="D196">
         <v>1</v>
       </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
       <c r="H196">
         <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -3725,7 +6680,19 @@
       <c r="B197">
         <v>1</v>
       </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
       <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
         <v>1</v>
       </c>
       <c r="H197">
@@ -3745,10 +6712,28 @@
       <c r="B198">
         <v>1</v>
       </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
       <c r="D198">
         <v>1</v>
       </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
       <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
         <v>0</v>
       </c>
     </row>
@@ -3759,10 +6744,19 @@
       <c r="B199">
         <v>1</v>
       </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
         <v>1</v>
       </c>
       <c r="H199">
@@ -3779,7 +6773,31 @@
       <c r="A200" s="1">
         <v>1249</v>
       </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
       <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
         <v>0</v>
       </c>
     </row>
@@ -3790,8 +6808,29 @@
       <c r="B201">
         <v>0</v>
       </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
       <c r="D201">
         <v>1</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -3801,8 +6840,29 @@
       <c r="B202">
         <v>0</v>
       </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
       <c r="D202">
         <v>1</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -3818,6 +6878,15 @@
       <c r="D203">
         <v>1</v>
       </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
       <c r="H203">
         <v>1</v>
       </c>
@@ -3835,10 +6904,28 @@
       <c r="B204">
         <v>0</v>
       </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
       <c r="D204">
         <v>1</v>
       </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
         <v>0</v>
       </c>
     </row>
@@ -3849,10 +6936,28 @@
       <c r="B205">
         <v>1</v>
       </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
       <c r="D205">
         <v>1</v>
       </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
       <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
         <v>0</v>
       </c>
     </row>
@@ -3860,7 +6965,31 @@
       <c r="A206" s="1">
         <v>1287</v>
       </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
       <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
         <v>0</v>
       </c>
     </row>
@@ -3871,8 +7000,20 @@
       <c r="B207">
         <v>0</v>
       </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
       <c r="D207">
         <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -3891,10 +7032,28 @@
       <c r="B208">
         <v>0</v>
       </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
       <c r="E208">
         <v>0</v>
       </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
       <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
         <v>0</v>
       </c>
     </row>
@@ -3905,7 +7064,19 @@
       <c r="B209">
         <v>0</v>
       </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
       <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
         <v>1</v>
       </c>
       <c r="H209">
@@ -3925,13 +7096,28 @@
       <c r="B210">
         <v>0</v>
       </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
       <c r="E210">
         <v>0</v>
       </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
       <c r="G210">
         <v>0</v>
       </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
         <v>0</v>
       </c>
     </row>
@@ -3942,22 +7128,52 @@
       <c r="B211">
         <v>0</v>
       </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
       <c r="D211">
         <v>0</v>
       </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
         <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="1">
         <v>1330</v>
       </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
       <c r="E212">
         <v>0</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -3976,13 +7192,28 @@
       <c r="B213">
         <v>1</v>
       </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
       <c r="E213">
         <v>0</v>
       </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
       <c r="G213">
         <v>0</v>
       </c>
       <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
         <v>0</v>
       </c>
     </row>
@@ -3993,8 +7224,17 @@
       <c r="B214">
         <v>0</v>
       </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
       <c r="E214">
         <v>0</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -4013,8 +7253,20 @@
       <c r="A215" s="1">
         <v>1363</v>
       </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
       <c r="D215">
         <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -4036,8 +7288,29 @@
       <c r="B216">
         <v>1</v>
       </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
       <c r="D216">
         <v>1</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -4047,7 +7320,16 @@
       <c r="B217">
         <v>0</v>
       </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
       <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
         <v>1</v>
       </c>
       <c r="G217">
@@ -4070,10 +7352,28 @@
       <c r="B218">
         <v>1</v>
       </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
         <v>0</v>
       </c>
     </row>
@@ -4084,8 +7384,20 @@
       <c r="B219">
         <v>1</v>
       </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
       <c r="E219">
         <v>0</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -4104,7 +7416,19 @@
       <c r="B220">
         <v>0</v>
       </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
       <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
         <v>1</v>
       </c>
       <c r="H220">
@@ -4124,13 +7448,28 @@
       <c r="B221">
         <v>0</v>
       </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
       <c r="E221">
         <v>0</v>
       </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
       <c r="G221">
         <v>1</v>
       </c>
       <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
         <v>0</v>
       </c>
     </row>
@@ -4141,7 +7480,28 @@
       <c r="B222">
         <v>0</v>
       </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
       <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
         <v>0</v>
       </c>
     </row>
@@ -4152,11 +7512,29 @@
       <c r="B223">
         <v>0</v>
       </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
       <c r="D223">
         <v>1</v>
       </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
       <c r="H223">
         <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -4166,7 +7544,19 @@
       <c r="B224">
         <v>0</v>
       </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
       <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
         <v>1</v>
       </c>
       <c r="H224">
@@ -4186,7 +7576,22 @@
       <c r="B225">
         <v>0</v>
       </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
       <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
         <v>1</v>
       </c>
       <c r="I225">
@@ -4203,18 +7608,51 @@
       <c r="B226">
         <v>0</v>
       </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
       <c r="D226">
         <v>1</v>
       </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
       <c r="H226">
         <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="1">
         <v>1412</v>
       </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
       <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
         <v>1</v>
       </c>
       <c r="H227">
@@ -4234,18 +7672,51 @@
       <c r="B228">
         <v>1</v>
       </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
       <c r="D228">
         <v>0</v>
       </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
       <c r="H228">
         <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="1">
         <v>1422</v>
       </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
       <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
         <v>1</v>
       </c>
       <c r="H229">
@@ -4262,11 +7733,32 @@
       <c r="A230" s="1">
         <v>1427</v>
       </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
       <c r="E230">
         <v>0</v>
       </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
       <c r="G230">
         <v>1</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -4276,6 +7768,12 @@
       <c r="B231">
         <v>1</v>
       </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
       <c r="E231">
         <v>1</v>
       </c>
@@ -4284,6 +7782,15 @@
       </c>
       <c r="G231">
         <v>1</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -4293,7 +7800,19 @@
       <c r="B232">
         <v>1</v>
       </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
       <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
         <v>1</v>
       </c>
       <c r="H232">
@@ -4313,7 +7832,16 @@
       <c r="B233">
         <v>0</v>
       </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
       <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
         <v>1</v>
       </c>
       <c r="G233">
@@ -4336,7 +7864,16 @@
       <c r="B234">
         <v>1</v>
       </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
       <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
         <v>1</v>
       </c>
       <c r="G234">
@@ -4359,7 +7896,19 @@
       <c r="B235">
         <v>1</v>
       </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
       <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
         <v>1</v>
       </c>
       <c r="H235">
@@ -4376,11 +7925,32 @@
       <c r="A236" s="1">
         <v>1473</v>
       </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
       <c r="E236">
         <v>0</v>
       </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
       <c r="H236">
         <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -4390,10 +7960,19 @@
       <c r="B237">
         <v>1</v>
       </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
       <c r="E237">
         <v>1</v>
       </c>
       <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
         <v>1</v>
       </c>
       <c r="H237">
@@ -4413,8 +7992,29 @@
       <c r="B238">
         <v>1</v>
       </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
       <c r="D238">
         <v>1</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -4424,11 +8024,29 @@
       <c r="B239">
         <v>0</v>
       </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
       <c r="D239">
         <v>1</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
       <c r="G239">
         <v>1</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -4438,10 +8056,19 @@
       <c r="B240">
         <v>0</v>
       </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
         <v>1</v>
       </c>
       <c r="H240">
@@ -4461,7 +8088,19 @@
       <c r="B241">
         <v>1</v>
       </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
       <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
         <v>1</v>
       </c>
       <c r="H241">
@@ -4481,11 +8120,29 @@
       <c r="B242">
         <v>1</v>
       </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
       <c r="D242">
         <v>0</v>
       </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
       <c r="G242">
         <v>1</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -4495,6 +8152,12 @@
       <c r="B243">
         <v>0</v>
       </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
       <c r="E243">
         <v>1</v>
       </c>
@@ -4506,6 +8169,12 @@
       </c>
       <c r="H243">
         <v>1</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -4515,11 +8184,23 @@
       <c r="B244">
         <v>0</v>
       </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
       <c r="E244">
         <v>0</v>
       </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
       <c r="G244">
         <v>0</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -4535,10 +8216,22 @@
       <c r="B245">
         <v>1</v>
       </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
       <c r="E245">
         <v>1</v>
       </c>
       <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
         <v>1</v>
       </c>
       <c r="I245">
@@ -4555,10 +8248,28 @@
       <c r="B246">
         <v>0</v>
       </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
       <c r="D246">
         <v>1</v>
       </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
       <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
         <v>0</v>
       </c>
     </row>
@@ -4569,8 +8280,20 @@
       <c r="B247">
         <v>0</v>
       </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
       <c r="E247">
         <v>0</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -4589,8 +8312,23 @@
       <c r="B248">
         <v>0</v>
       </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
       <c r="D248">
         <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -4612,8 +8350,23 @@
       <c r="D249">
         <v>1</v>
       </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
       <c r="H249">
         <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -4623,8 +8376,20 @@
       <c r="B250">
         <v>1</v>
       </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
       <c r="D250">
         <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -4643,10 +8408,22 @@
       <c r="B251">
         <v>1</v>
       </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
       <c r="D251">
         <v>1</v>
       </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
       <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
         <v>1</v>
       </c>
       <c r="I251">
@@ -4663,7 +8440,28 @@
       <c r="B252">
         <v>1</v>
       </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
       <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
         <v>0</v>
       </c>
     </row>
@@ -4674,11 +8472,29 @@
       <c r="B253">
         <v>1</v>
       </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
       <c r="E253">
         <v>1</v>
       </c>
       <c r="F253">
         <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -4688,10 +8504,28 @@
       <c r="B254">
         <v>0</v>
       </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
       <c r="D254">
         <v>0</v>
       </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
       <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
         <v>0</v>
       </c>
     </row>
@@ -4702,10 +8536,28 @@
       <c r="B255">
         <v>1</v>
       </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
       <c r="D255">
         <v>1</v>
       </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
       <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
         <v>0</v>
       </c>
     </row>
@@ -4716,10 +8568,28 @@
       <c r="B256">
         <v>0</v>
       </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
       <c r="E256">
         <v>0</v>
       </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
       <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
         <v>0</v>
       </c>
     </row>
@@ -4727,11 +8597,32 @@
       <c r="A257" s="1">
         <v>1579</v>
       </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
       <c r="D257">
         <v>0</v>
       </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
       <c r="H257">
         <v>1</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -4741,11 +8632,29 @@
       <c r="B258">
         <v>0</v>
       </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
       <c r="E258">
         <v>0</v>
       </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
       <c r="G258">
         <v>1</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -4755,7 +8664,19 @@
       <c r="B259">
         <v>1</v>
       </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
       <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
         <v>1</v>
       </c>
       <c r="H259">
@@ -4775,8 +8696,17 @@
       <c r="B260">
         <v>0</v>
       </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
       <c r="D260">
         <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -4798,7 +8728,19 @@
       <c r="B261">
         <v>1</v>
       </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
       <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
         <v>1</v>
       </c>
       <c r="H261">
@@ -4818,14 +8760,29 @@
       <c r="B262">
         <v>1</v>
       </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
       <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
       <c r="H262">
         <v>1</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -4835,10 +8792,22 @@
       <c r="B263">
         <v>1</v>
       </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
       <c r="E263">
         <v>1</v>
       </c>
       <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
         <v>1</v>
       </c>
       <c r="I263">
@@ -4855,11 +8824,29 @@
       <c r="B264">
         <v>0</v>
       </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
       <c r="E264">
         <v>0</v>
       </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
       <c r="G264">
         <v>1</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -4869,7 +8856,19 @@
       <c r="B265">
         <v>0</v>
       </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
       <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
         <v>1</v>
       </c>
       <c r="H265">
@@ -4889,11 +8888,23 @@
       <c r="B266">
         <v>1</v>
       </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
       <c r="E266">
         <v>0</v>
       </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
       <c r="G266">
         <v>0</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -4909,7 +8920,19 @@
       <c r="B267">
         <v>0</v>
       </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
       <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
         <v>1</v>
       </c>
       <c r="H267">
@@ -4929,7 +8952,19 @@
       <c r="B268">
         <v>1</v>
       </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
       <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
         <v>1</v>
       </c>
       <c r="H268">
@@ -4949,7 +8984,28 @@
       <c r="B269">
         <v>1</v>
       </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
       <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
         <v>0</v>
       </c>
     </row>
@@ -4960,10 +9016,28 @@
       <c r="B270">
         <v>1</v>
       </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
       <c r="E270">
         <v>0</v>
       </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
       <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
         <v>0</v>
       </c>
     </row>
@@ -4971,8 +9045,26 @@
       <c r="A271" s="1">
         <v>1684</v>
       </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
       <c r="E271">
         <v>0</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -4988,10 +9080,19 @@
       <c r="B272">
         <v>1</v>
       </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
       <c r="E272">
         <v>1</v>
       </c>
       <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
@@ -5011,8 +9112,20 @@
       <c r="B273">
         <v>0</v>
       </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
       <c r="E273">
         <v>0</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -5031,11 +9144,23 @@
       <c r="B274">
         <v>0</v>
       </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
       <c r="D274">
         <v>1</v>
       </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
       <c r="G274">
         <v>0</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -5051,11 +9176,29 @@
       <c r="B275">
         <v>0</v>
       </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
       <c r="D275">
         <v>1</v>
       </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
       <c r="H275">
         <v>1</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -5065,7 +9208,19 @@
       <c r="B276">
         <v>0</v>
       </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
       <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
         <v>1</v>
       </c>
       <c r="H276">
@@ -5085,10 +9240,28 @@
       <c r="B277">
         <v>0</v>
       </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
       <c r="D277">
         <v>1</v>
       </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
       <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
         <v>0</v>
       </c>
     </row>
@@ -5099,11 +9272,29 @@
       <c r="B278">
         <v>1</v>
       </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
       <c r="D278">
         <v>0</v>
       </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
       <c r="H278">
         <v>1</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -5113,8 +9304,29 @@
       <c r="B279">
         <v>1</v>
       </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
       <c r="D279">
         <v>1</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -5124,10 +9336,22 @@
       <c r="B280">
         <v>0</v>
       </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
       <c r="D280">
         <v>1</v>
       </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
       <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
         <v>1</v>
       </c>
       <c r="I280">
@@ -5144,6 +9368,12 @@
       <c r="B281">
         <v>1</v>
       </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
       <c r="E281">
         <v>1</v>
       </c>
@@ -5167,6 +9397,15 @@
       <c r="A282" s="1">
         <v>1761</v>
       </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
       <c r="E282">
         <v>1</v>
       </c>
@@ -5193,8 +9432,17 @@
       <c r="B283">
         <v>1</v>
       </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
       <c r="E283">
         <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -5219,8 +9467,14 @@
       <c r="C284">
         <v>0</v>
       </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
       <c r="E284">
         <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -5242,8 +9496,20 @@
       <c r="B285">
         <v>0</v>
       </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
       <c r="E285">
         <v>0</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -5262,16 +9528,52 @@
       <c r="B286">
         <v>1</v>
       </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
       <c r="D286">
         <v>1</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="1">
         <v>1774</v>
       </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
       <c r="E287">
         <v>0</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -5290,11 +9592,29 @@
       <c r="B288">
         <v>0</v>
       </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
       <c r="D288">
         <v>1</v>
       </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
       <c r="H288">
         <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -5304,19 +9624,49 @@
       <c r="B289">
         <v>0</v>
       </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
       <c r="E289">
         <v>0</v>
       </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
       <c r="H289">
         <v>1</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="1">
         <v>1786</v>
       </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
       <c r="E290">
         <v>0</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -5338,8 +9688,20 @@
       <c r="B291">
         <v>0</v>
       </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
       <c r="D291">
         <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -5358,11 +9720,20 @@
       <c r="B292">
         <v>0</v>
       </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
       <c r="E292">
         <v>1</v>
       </c>
       <c r="F292">
         <v>0</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -5381,10 +9752,28 @@
       <c r="B293">
         <v>0</v>
       </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
       <c r="D293">
         <v>0</v>
       </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
       <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
         <v>0</v>
       </c>
     </row>
@@ -5395,11 +9784,20 @@
       <c r="B294">
         <v>0</v>
       </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
       <c r="E294">
         <v>1</v>
       </c>
       <c r="F294">
         <v>0</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -5415,10 +9813,31 @@
       <c r="A295" s="1">
         <v>1825</v>
       </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
       <c r="D295">
         <v>1</v>
       </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
       <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
         <v>0</v>
       </c>
     </row>
